--- a/data/2023/fid/FID-MUS-DE-12.xlsx
+++ b/data/2023/fid/FID-MUS-DE-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5675" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5675" uniqueCount="1415">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -298,10 +298,10 @@
     <t>1.1986 -</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>DE-1;DE-3-38;DE-14;DE-15;DE-19;DE-20;DE-21;DE-24;DE-Frei50;DE-26-030;DE-30;DE-31;DE-34-22;DE-35;DE-46;DE-107;DE-109;DE-290;DE-352;DE-355;DE-384;DE-467;DE-468;DE-22;DE-703;DE-Lg1;DE-1156;DE-60</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>DE-1;DE-3-38;DE-7;DE-8;DE-14;DE-15;DE-19;DE-20;DE-21;DE-24;DE-Frei50;DE-26-030;DE-30;DE-31;DE-34-22;DE-35;DE-46;DE-84;DE-107;DE-109;DE-290;DE-352;DE-355;DE-384;DE-467;DE-468;DE-22;DE-703;DE-Hil2;DE-Lg1;DE-1156;DE-60</t>
   </si>
   <si>
     <t>206605-1</t>
@@ -349,10 +349,10 @@
     <t>1.1918/19 - 8.1926; 9.1952 -</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>DE-1;DE-3-38;DE-5;DE-9;DE-14;DE-15;DE-16;DE-18;DE-19;DE-20;DE-24;DE-26-030;DE-29;DE-30;DE-31;DE-32;DE-34-22;DE-35;DE-38;DE-43;DE-46;DE-66;DE-107;DE-109;DE-291;DE-355;DE-361;DE-384;DE-Lan1;DE-467;DE-468;DE-22;DE-703;DE-715;DE-Kn28;DE-1156;DE-Kob7</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>DE-1;DE-3-38;DE-5;DE-8;DE-9;DE-14;DE-15;DE-16;DE-18;DE-19;DE-20;DE-23;DE-24;DE-26-009;DE-26-030;DE-29;DE-30;DE-31;DE-32;DE-34-22;DE-35;DE-38;DE-43;DE-46;DE-66;DE-107;DE-109;DE-291;DE-355;DE-361;DE-384;DE-Lan1;DE-467;DE-468;DE-22;DE-700;DE-703;DE-715;DE-Hil2;DE-Kn28;DE-1156;DE-Kob7</t>
   </si>
   <si>
     <t>233197-4</t>
@@ -862,9 +862,6 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2112018;https://muse.jhu.edu/journal/228;https://www.jstor.org/journal/philmusieducrevi</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>DE-1a;DE-4;DE-7;DE-15;DE-15-292;DE-16;DE-18;DE-210;DE-19;DE-20;DE-21;DE-24;DE-Frei129;DE-Frei50;DE-25;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-90;DE-91;DE-93;DE-180;DE-Sa18;DE-291;DE-352;DE-384;DE-473;DE-70;DE-517;DE-547;DE-703;DE-824;DE-Hil2;DE-Ch1;DE-Wim2;DE-752;DE-Lg1;DE-523;DE-751</t>
   </si>
   <si>
@@ -1780,7 +1777,10 @@
     <t>1.2013 -</t>
   </si>
   <si>
-    <t>DE-20;DE-929</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DE-1;DE-20;DE-929</t>
   </si>
   <si>
     <t>3094619-0</t>
@@ -2737,7 +2737,7 @@
     <t>1. Jahrgang (2017)-</t>
   </si>
   <si>
-    <t>DE-35</t>
+    <t>DE-7;DE-23;DE-35;DE-56</t>
   </si>
   <si>
     <t>2907031-4</t>
@@ -3421,9 +3421,6 @@
     <t>No 1 (Herbst 2018)-</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>DE-1;DE-27;DE-32</t>
   </si>
   <si>
@@ -3496,7 +3493,7 @@
     <t>Ausg. 1.2013(He.) -</t>
   </si>
   <si>
-    <t>DE-109;DE-Wim2;DE-Mar1</t>
+    <t>DE-8;DE-109;DE-Wim2;DE-Mar1</t>
   </si>
   <si>
     <t>2970191-0</t>
@@ -3676,7 +3673,7 @@
     <t>519406-4</t>
   </si>
   <si>
-    <t>DE-7;DE-18;DE-31;DE-352;DE-468</t>
+    <t>DE-7;DE-8;DE-18;DE-23;DE-31;DE-352;DE-468</t>
   </si>
   <si>
     <t>2981519-8</t>
@@ -7134,15 +7131,15 @@
         <v>31</v>
       </c>
       <c r="X33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y33" t="s">
         <v>282</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -7151,13 +7148,13 @@
         <v>237</v>
       </c>
       <c r="D34" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" t="s">
         <v>285</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>286</v>
-      </c>
-      <c r="F34" t="s">
-        <v>287</v>
       </c>
       <c r="G34" t="s">
         <v>83</v>
@@ -7166,7 +7163,7 @@
         <v>31</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
@@ -7193,33 +7190,33 @@
         <v>31</v>
       </c>
       <c r="R34" t="s">
+        <v>288</v>
+      </c>
+      <c r="S34" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" t="s">
+        <v>31</v>
+      </c>
+      <c r="V34" t="s">
+        <v>31</v>
+      </c>
+      <c r="W34" t="s">
+        <v>31</v>
+      </c>
+      <c r="X34" t="s">
         <v>289</v>
       </c>
-      <c r="S34" t="s">
-        <v>31</v>
-      </c>
-      <c r="T34" t="s">
-        <v>31</v>
-      </c>
-      <c r="U34" t="s">
-        <v>31</v>
-      </c>
-      <c r="V34" t="s">
-        <v>31</v>
-      </c>
-      <c r="W34" t="s">
-        <v>31</v>
-      </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>290</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -7228,13 +7225,13 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" t="s">
         <v>293</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>294</v>
-      </c>
-      <c r="F35" t="s">
-        <v>295</v>
       </c>
       <c r="G35" t="s">
         <v>130</v>
@@ -7246,7 +7243,7 @@
         <v>31</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
         <v>50</v>
@@ -7270,7 +7267,7 @@
         <v>31</v>
       </c>
       <c r="R35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S35" t="s">
         <v>31</v>
@@ -7291,12 +7288,12 @@
         <v>60</v>
       </c>
       <c r="Y35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -7305,13 +7302,13 @@
         <v>87</v>
       </c>
       <c r="D36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" t="s">
         <v>300</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>301</v>
-      </c>
-      <c r="F36" t="s">
-        <v>302</v>
       </c>
       <c r="G36" t="s">
         <v>83</v>
@@ -7320,34 +7317,34 @@
         <v>31</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" t="s">
         <v>304</v>
       </c>
-      <c r="L36" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" t="s">
-        <v>31</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>305</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>306</v>
-      </c>
-      <c r="R36" t="s">
-        <v>307</v>
       </c>
       <c r="S36" t="s">
         <v>31</v>
@@ -7373,7 +7370,7 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s">
         <v>141</v>
@@ -7382,13 +7379,13 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" t="s">
         <v>309</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>310</v>
-      </c>
-      <c r="F37" t="s">
-        <v>311</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -7400,7 +7397,7 @@
         <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K37" t="s">
         <v>33</v>
@@ -7418,39 +7415,39 @@
         <v>31</v>
       </c>
       <c r="P37" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" t="s">
         <v>313</v>
       </c>
-      <c r="Q37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>314</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37" t="s">
+        <v>31</v>
+      </c>
+      <c r="X37" t="s">
         <v>315</v>
       </c>
-      <c r="T37" t="s">
-        <v>31</v>
-      </c>
-      <c r="U37" t="s">
-        <v>31</v>
-      </c>
-      <c r="V37" t="s">
-        <v>31</v>
-      </c>
-      <c r="W37" t="s">
-        <v>31</v>
-      </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>316</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s">
         <v>141</v>
@@ -7459,7 +7456,7 @@
         <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E38" t="s">
         <v>48</v>
@@ -7501,10 +7498,10 @@
         <v>31</v>
       </c>
       <c r="R38" t="s">
+        <v>319</v>
+      </c>
+      <c r="S38" t="s">
         <v>320</v>
-      </c>
-      <c r="S38" t="s">
-        <v>321</v>
       </c>
       <c r="T38" t="s">
         <v>31</v>
@@ -7519,15 +7516,15 @@
         <v>31</v>
       </c>
       <c r="X38" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y38" t="s">
         <v>322</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -7536,13 +7533,13 @@
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G39" t="s">
         <v>40</v>
@@ -7613,7 +7610,7 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
@@ -7649,13 +7646,13 @@
         <v>31</v>
       </c>
       <c r="P40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q40" t="s">
         <v>224</v>
       </c>
       <c r="R40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S40" t="s">
         <v>31</v>
@@ -7681,7 +7678,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -7690,10 +7687,10 @@
         <v>237</v>
       </c>
       <c r="D41" t="s">
+        <v>330</v>
+      </c>
+      <c r="E41" t="s">
         <v>331</v>
-      </c>
-      <c r="E41" t="s">
-        <v>332</v>
       </c>
       <c r="F41" t="s">
         <v>30</v>
@@ -7714,25 +7711,25 @@
         <v>50</v>
       </c>
       <c r="L41" t="s">
+        <v>332</v>
+      </c>
+      <c r="M41" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>327</v>
+      </c>
+      <c r="R41" t="s">
         <v>333</v>
-      </c>
-      <c r="M41" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" t="s">
-        <v>31</v>
-      </c>
-      <c r="P41" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>328</v>
-      </c>
-      <c r="R41" t="s">
-        <v>334</v>
       </c>
       <c r="S41" t="s">
         <v>31</v>
@@ -7758,7 +7755,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -7767,7 +7764,7 @@
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
@@ -7791,25 +7788,25 @@
         <v>33</v>
       </c>
       <c r="L42" t="s">
+        <v>335</v>
+      </c>
+      <c r="M42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" t="s">
         <v>336</v>
       </c>
-      <c r="M42" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>337</v>
-      </c>
-      <c r="R42" t="s">
-        <v>338</v>
       </c>
       <c r="S42" t="s">
         <v>31</v>
@@ -7835,7 +7832,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s">
         <v>141</v>
@@ -7844,13 +7841,13 @@
         <v>160</v>
       </c>
       <c r="D43" t="s">
+        <v>339</v>
+      </c>
+      <c r="E43" t="s">
         <v>340</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>341</v>
-      </c>
-      <c r="F43" t="s">
-        <v>342</v>
       </c>
       <c r="G43" t="s">
         <v>40</v>
@@ -7859,7 +7856,7 @@
         <v>31</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J43" t="s">
         <v>42</v>
@@ -7883,13 +7880,13 @@
         <v>31</v>
       </c>
       <c r="Q43" t="s">
+        <v>343</v>
+      </c>
+      <c r="R43" t="s">
         <v>344</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>345</v>
-      </c>
-      <c r="S43" t="s">
-        <v>346</v>
       </c>
       <c r="T43" t="s">
         <v>31</v>
@@ -7904,15 +7901,15 @@
         <v>31</v>
       </c>
       <c r="X43" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y43" t="s">
         <v>347</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s">
         <v>141</v>
@@ -7921,13 +7918,13 @@
         <v>160</v>
       </c>
       <c r="D44" t="s">
+        <v>348</v>
+      </c>
+      <c r="E44" t="s">
         <v>349</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>350</v>
-      </c>
-      <c r="F44" t="s">
-        <v>351</v>
       </c>
       <c r="G44" t="s">
         <v>40</v>
@@ -7957,16 +7954,16 @@
         <v>31</v>
       </c>
       <c r="P44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q44" t="s">
         <v>31</v>
       </c>
       <c r="R44" t="s">
+        <v>351</v>
+      </c>
+      <c r="S44" t="s">
         <v>352</v>
-      </c>
-      <c r="S44" t="s">
-        <v>353</v>
       </c>
       <c r="T44" t="s">
         <v>31</v>
@@ -7984,12 +7981,12 @@
         <v>60</v>
       </c>
       <c r="Y44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s">
         <v>141</v>
@@ -7998,13 +7995,13 @@
         <v>160</v>
       </c>
       <c r="D45" t="s">
+        <v>355</v>
+      </c>
+      <c r="E45" t="s">
         <v>356</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>357</v>
-      </c>
-      <c r="F45" t="s">
-        <v>358</v>
       </c>
       <c r="G45" t="s">
         <v>40</v>
@@ -8034,16 +8031,16 @@
         <v>31</v>
       </c>
       <c r="P45" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" t="s">
         <v>359</v>
       </c>
-      <c r="Q45" t="s">
-        <v>31</v>
-      </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>360</v>
-      </c>
-      <c r="S45" t="s">
-        <v>361</v>
       </c>
       <c r="T45" t="s">
         <v>31</v>
@@ -8066,7 +8063,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s">
         <v>141</v>
@@ -8075,13 +8072,13 @@
         <v>160</v>
       </c>
       <c r="D46" t="s">
+        <v>362</v>
+      </c>
+      <c r="E46" t="s">
         <v>363</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>364</v>
-      </c>
-      <c r="F46" t="s">
-        <v>365</v>
       </c>
       <c r="G46" t="s">
         <v>40</v>
@@ -8096,31 +8093,31 @@
         <v>42</v>
       </c>
       <c r="K46" t="s">
+        <v>365</v>
+      </c>
+      <c r="L46" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" t="s">
+        <v>31</v>
+      </c>
+      <c r="P46" t="s">
         <v>366</v>
       </c>
-      <c r="L46" t="s">
-        <v>31</v>
-      </c>
-      <c r="M46" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" t="s">
-        <v>31</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" t="s">
         <v>367</v>
       </c>
-      <c r="Q46" t="s">
-        <v>31</v>
-      </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>368</v>
-      </c>
-      <c r="S46" t="s">
-        <v>369</v>
       </c>
       <c r="T46" t="s">
         <v>31</v>
@@ -8143,7 +8140,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
         <v>141</v>
@@ -8152,16 +8149,16 @@
         <v>160</v>
       </c>
       <c r="D47" t="s">
+        <v>369</v>
+      </c>
+      <c r="E47" t="s">
         <v>370</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>371</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>372</v>
-      </c>
-      <c r="G47" t="s">
-        <v>373</v>
       </c>
       <c r="H47" t="s">
         <v>31</v>
@@ -8188,16 +8185,16 @@
         <v>31</v>
       </c>
       <c r="P47" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>354</v>
+      </c>
+      <c r="R47" t="s">
         <v>374</v>
       </c>
-      <c r="Q47" t="s">
-        <v>355</v>
-      </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>375</v>
-      </c>
-      <c r="S47" t="s">
-        <v>376</v>
       </c>
       <c r="T47" t="s">
         <v>31</v>
@@ -8220,7 +8217,7 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -8229,22 +8226,22 @@
         <v>237</v>
       </c>
       <c r="D48" t="s">
+        <v>377</v>
+      </c>
+      <c r="E48" t="s">
         <v>378</v>
-      </c>
-      <c r="E48" t="s">
-        <v>379</v>
       </c>
       <c r="F48" t="s">
         <v>56</v>
       </c>
       <c r="G48" t="s">
+        <v>379</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s">
         <v>380</v>
-      </c>
-      <c r="H48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" t="s">
-        <v>381</v>
       </c>
       <c r="J48" t="s">
         <v>42</v>
@@ -8271,7 +8268,7 @@
         <v>31</v>
       </c>
       <c r="R48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S48" t="s">
         <v>31</v>
@@ -8292,12 +8289,12 @@
         <v>60</v>
       </c>
       <c r="Y48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s">
         <v>141</v>
@@ -8309,10 +8306,10 @@
         <v>37</v>
       </c>
       <c r="E49" t="s">
+        <v>384</v>
+      </c>
+      <c r="F49" t="s">
         <v>385</v>
-      </c>
-      <c r="F49" t="s">
-        <v>386</v>
       </c>
       <c r="G49" t="s">
         <v>40</v>
@@ -8321,7 +8318,7 @@
         <v>31</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J49" t="s">
         <v>42</v>
@@ -8348,10 +8345,10 @@
         <v>31</v>
       </c>
       <c r="R49" t="s">
+        <v>387</v>
+      </c>
+      <c r="S49" t="s">
         <v>388</v>
-      </c>
-      <c r="S49" t="s">
-        <v>389</v>
       </c>
       <c r="T49" t="s">
         <v>31</v>
@@ -8366,15 +8363,15 @@
         <v>31</v>
       </c>
       <c r="X49" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y49" t="s">
         <v>390</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s">
         <v>141</v>
@@ -8383,13 +8380,13 @@
         <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -8398,7 +8395,7 @@
         <v>31</v>
       </c>
       <c r="I50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
@@ -8425,10 +8422,10 @@
         <v>31</v>
       </c>
       <c r="R50" t="s">
+        <v>395</v>
+      </c>
+      <c r="S50" t="s">
         <v>396</v>
-      </c>
-      <c r="S50" t="s">
-        <v>397</v>
       </c>
       <c r="T50" t="s">
         <v>148</v>
@@ -8446,12 +8443,12 @@
         <v>261</v>
       </c>
       <c r="Y50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s">
         <v>141</v>
@@ -8460,13 +8457,13 @@
         <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -8475,7 +8472,7 @@
         <v>31</v>
       </c>
       <c r="I51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
@@ -8502,10 +8499,10 @@
         <v>31</v>
       </c>
       <c r="R51" t="s">
+        <v>402</v>
+      </c>
+      <c r="S51" t="s">
         <v>403</v>
-      </c>
-      <c r="S51" t="s">
-        <v>404</v>
       </c>
       <c r="T51" t="s">
         <v>31</v>
@@ -8523,12 +8520,12 @@
         <v>222</v>
       </c>
       <c r="Y51" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s">
         <v>141</v>
@@ -8537,13 +8534,13 @@
         <v>27</v>
       </c>
       <c r="D52" t="s">
+        <v>406</v>
+      </c>
+      <c r="E52" t="s">
         <v>407</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>408</v>
-      </c>
-      <c r="F52" t="s">
-        <v>409</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -8576,13 +8573,13 @@
         <v>31</v>
       </c>
       <c r="Q52" t="s">
+        <v>409</v>
+      </c>
+      <c r="R52" t="s">
         <v>410</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>411</v>
-      </c>
-      <c r="S52" t="s">
-        <v>412</v>
       </c>
       <c r="T52" t="s">
         <v>148</v>
@@ -8605,7 +8602,7 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s">
         <v>141</v>
@@ -8614,13 +8611,13 @@
         <v>27</v>
       </c>
       <c r="D53" t="s">
+        <v>413</v>
+      </c>
+      <c r="E53" t="s">
         <v>414</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>415</v>
-      </c>
-      <c r="F53" t="s">
-        <v>416</v>
       </c>
       <c r="G53" t="s">
         <v>40</v>
@@ -8629,7 +8626,7 @@
         <v>31</v>
       </c>
       <c r="I53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
@@ -8656,10 +8653,10 @@
         <v>31</v>
       </c>
       <c r="R53" t="s">
+        <v>417</v>
+      </c>
+      <c r="S53" t="s">
         <v>418</v>
-      </c>
-      <c r="S53" t="s">
-        <v>419</v>
       </c>
       <c r="T53" t="s">
         <v>148</v>
@@ -8677,12 +8674,12 @@
         <v>149</v>
       </c>
       <c r="Y53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -8691,7 +8688,7 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
@@ -8715,7 +8712,7 @@
         <v>50</v>
       </c>
       <c r="L54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M54" t="s">
         <v>31</v>
@@ -8727,13 +8724,13 @@
         <v>31</v>
       </c>
       <c r="P54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q54" t="s">
         <v>226</v>
       </c>
       <c r="R54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S54" t="s">
         <v>31</v>
@@ -8759,7 +8756,7 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -8768,13 +8765,13 @@
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G55" t="s">
         <v>83</v>
@@ -8786,7 +8783,7 @@
         <v>31</v>
       </c>
       <c r="J55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K55" t="s">
         <v>50</v>
@@ -8804,13 +8801,13 @@
         <v>31</v>
       </c>
       <c r="P55" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" t="s">
         <v>427</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" t="s">
-        <v>428</v>
       </c>
       <c r="S55" t="s">
         <v>31</v>
@@ -8836,19 +8833,19 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
+        <v>428</v>
+      </c>
+      <c r="B56" t="s">
         <v>429</v>
-      </c>
-      <c r="B56" t="s">
-        <v>430</v>
       </c>
       <c r="C56" t="s">
         <v>237</v>
       </c>
       <c r="D56" t="s">
+        <v>430</v>
+      </c>
+      <c r="E56" t="s">
         <v>431</v>
-      </c>
-      <c r="E56" t="s">
-        <v>432</v>
       </c>
       <c r="F56" t="s">
         <v>107</v>
@@ -8887,7 +8884,7 @@
         <v>31</v>
       </c>
       <c r="R56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S56" t="s">
         <v>31</v>
@@ -8913,7 +8910,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -8922,13 +8919,13 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G57" t="s">
         <v>83</v>
@@ -8961,10 +8958,10 @@
         <v>31</v>
       </c>
       <c r="Q57" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R57" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S57" t="s">
         <v>31</v>
@@ -8985,12 +8982,12 @@
         <v>60</v>
       </c>
       <c r="Y57" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s">
         <v>141</v>
@@ -8999,13 +8996,13 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
+        <v>437</v>
+      </c>
+      <c r="E58" t="s">
         <v>438</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>439</v>
-      </c>
-      <c r="F58" t="s">
-        <v>440</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -9044,7 +9041,7 @@
         <v>31</v>
       </c>
       <c r="S58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T58" t="s">
         <v>31</v>
@@ -9062,12 +9059,12 @@
         <v>60</v>
       </c>
       <c r="Y58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -9076,22 +9073,22 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
+        <v>443</v>
+      </c>
+      <c r="E59" t="s">
         <v>444</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>445</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>446</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s">
         <v>447</v>
-      </c>
-      <c r="H59" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" t="s">
-        <v>448</v>
       </c>
       <c r="J59" t="s">
         <v>42</v>
@@ -9118,7 +9115,7 @@
         <v>31</v>
       </c>
       <c r="R59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S59" t="s">
         <v>31</v>
@@ -9144,7 +9141,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -9153,13 +9150,13 @@
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G60" t="s">
         <v>66</v>
@@ -9195,7 +9192,7 @@
         <v>31</v>
       </c>
       <c r="R60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S60" t="s">
         <v>31</v>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -9230,16 +9227,16 @@
         <v>27</v>
       </c>
       <c r="D61" t="s">
+        <v>453</v>
+      </c>
+      <c r="E61" t="s">
         <v>454</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>455</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>456</v>
-      </c>
-      <c r="G61" t="s">
-        <v>457</v>
       </c>
       <c r="H61" t="s">
         <v>31</v>
@@ -9251,28 +9248,28 @@
         <v>42</v>
       </c>
       <c r="K61" t="s">
+        <v>457</v>
+      </c>
+      <c r="L61" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" t="s">
+        <v>31</v>
+      </c>
+      <c r="P61" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>31</v>
+      </c>
+      <c r="R61" t="s">
         <v>458</v>
-      </c>
-      <c r="L61" t="s">
-        <v>31</v>
-      </c>
-      <c r="M61" t="s">
-        <v>31</v>
-      </c>
-      <c r="N61" t="s">
-        <v>31</v>
-      </c>
-      <c r="O61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P61" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>31</v>
-      </c>
-      <c r="R61" t="s">
-        <v>459</v>
       </c>
       <c r="S61" t="s">
         <v>31</v>
@@ -9290,15 +9287,15 @@
         <v>31</v>
       </c>
       <c r="X61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -9307,13 +9304,13 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
+        <v>461</v>
+      </c>
+      <c r="E62" t="s">
         <v>462</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>463</v>
-      </c>
-      <c r="F62" t="s">
-        <v>464</v>
       </c>
       <c r="G62" t="s">
         <v>72</v>
@@ -9322,7 +9319,7 @@
         <v>31</v>
       </c>
       <c r="I62" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
@@ -9349,7 +9346,7 @@
         <v>31</v>
       </c>
       <c r="R62" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S62" t="s">
         <v>31</v>
@@ -9375,7 +9372,7 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B63" t="s">
         <v>141</v>
@@ -9384,16 +9381,16 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
+        <v>377</v>
+      </c>
+      <c r="E63" t="s">
         <v>378</v>
-      </c>
-      <c r="E63" t="s">
-        <v>379</v>
       </c>
       <c r="F63" t="s">
         <v>56</v>
       </c>
       <c r="G63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H63" t="s">
         <v>31</v>
@@ -9426,10 +9423,10 @@
         <v>31</v>
       </c>
       <c r="R63" t="s">
+        <v>467</v>
+      </c>
+      <c r="S63" t="s">
         <v>468</v>
-      </c>
-      <c r="S63" t="s">
-        <v>469</v>
       </c>
       <c r="T63" t="s">
         <v>148</v>
@@ -9452,7 +9449,7 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B64" t="s">
         <v>141</v>
@@ -9461,13 +9458,13 @@
         <v>27</v>
       </c>
       <c r="D64" t="s">
+        <v>470</v>
+      </c>
+      <c r="E64" t="s">
         <v>471</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>472</v>
-      </c>
-      <c r="F64" t="s">
-        <v>473</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -9503,10 +9500,10 @@
         <v>31</v>
       </c>
       <c r="R64" t="s">
+        <v>473</v>
+      </c>
+      <c r="S64" t="s">
         <v>474</v>
-      </c>
-      <c r="S64" t="s">
-        <v>475</v>
       </c>
       <c r="T64" t="s">
         <v>148</v>
@@ -9524,12 +9521,12 @@
         <v>149</v>
       </c>
       <c r="Y64" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B65" t="s">
         <v>141</v>
@@ -9538,22 +9535,22 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
+        <v>477</v>
+      </c>
+      <c r="E65" t="s">
         <v>478</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>479</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>480</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s">
         <v>481</v>
-      </c>
-      <c r="H65" t="s">
-        <v>31</v>
-      </c>
-      <c r="I65" t="s">
-        <v>482</v>
       </c>
       <c r="J65" t="s">
         <v>42</v>
@@ -9580,10 +9577,10 @@
         <v>31</v>
       </c>
       <c r="R65" t="s">
+        <v>482</v>
+      </c>
+      <c r="S65" t="s">
         <v>483</v>
-      </c>
-      <c r="S65" t="s">
-        <v>484</v>
       </c>
       <c r="T65" t="s">
         <v>148</v>
@@ -9601,12 +9598,12 @@
         <v>149</v>
       </c>
       <c r="Y65" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B66" t="s">
         <v>141</v>
@@ -9615,13 +9612,13 @@
         <v>27</v>
       </c>
       <c r="D66" t="s">
+        <v>485</v>
+      </c>
+      <c r="E66" t="s">
         <v>486</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>487</v>
-      </c>
-      <c r="F66" t="s">
-        <v>488</v>
       </c>
       <c r="G66" t="s">
         <v>130</v>
@@ -9630,7 +9627,7 @@
         <v>31</v>
       </c>
       <c r="I66" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J66" t="s">
         <v>42</v>
@@ -9657,10 +9654,10 @@
         <v>31</v>
       </c>
       <c r="R66" t="s">
+        <v>489</v>
+      </c>
+      <c r="S66" t="s">
         <v>490</v>
-      </c>
-      <c r="S66" t="s">
-        <v>491</v>
       </c>
       <c r="T66" t="s">
         <v>148</v>
@@ -9678,12 +9675,12 @@
         <v>149</v>
       </c>
       <c r="Y66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B67" t="s">
         <v>141</v>
@@ -9692,16 +9689,16 @@
         <v>27</v>
       </c>
       <c r="D67" t="s">
+        <v>492</v>
+      </c>
+      <c r="E67" t="s">
         <v>493</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>494</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>495</v>
-      </c>
-      <c r="G67" t="s">
-        <v>496</v>
       </c>
       <c r="H67" t="s">
         <v>31</v>
@@ -9734,13 +9731,13 @@
         <v>31</v>
       </c>
       <c r="R67" t="s">
+        <v>496</v>
+      </c>
+      <c r="S67" t="s">
         <v>497</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>498</v>
-      </c>
-      <c r="T67" t="s">
-        <v>499</v>
       </c>
       <c r="U67" t="s">
         <v>44</v>
@@ -9755,12 +9752,12 @@
         <v>261</v>
       </c>
       <c r="Y67" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -9769,10 +9766,10 @@
         <v>27</v>
       </c>
       <c r="D68" t="s">
+        <v>501</v>
+      </c>
+      <c r="E68" t="s">
         <v>502</v>
-      </c>
-      <c r="E68" t="s">
-        <v>503</v>
       </c>
       <c r="F68" t="s">
         <v>71</v>
@@ -9784,7 +9781,7 @@
         <v>31</v>
       </c>
       <c r="I68" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J68" t="s">
         <v>31</v>
@@ -9811,7 +9808,7 @@
         <v>31</v>
       </c>
       <c r="R68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S68" t="s">
         <v>31</v>
@@ -9832,12 +9829,12 @@
         <v>60</v>
       </c>
       <c r="Y68" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -9846,22 +9843,22 @@
         <v>27</v>
       </c>
       <c r="D69" t="s">
+        <v>507</v>
+      </c>
+      <c r="E69" t="s">
         <v>508</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>509</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
+        <v>480</v>
+      </c>
+      <c r="H69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" t="s">
         <v>510</v>
-      </c>
-      <c r="G69" t="s">
-        <v>481</v>
-      </c>
-      <c r="H69" t="s">
-        <v>31</v>
-      </c>
-      <c r="I69" t="s">
-        <v>511</v>
       </c>
       <c r="J69" t="s">
         <v>42</v>
@@ -9888,7 +9885,7 @@
         <v>31</v>
       </c>
       <c r="R69" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S69" t="s">
         <v>31</v>
@@ -9914,7 +9911,7 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -9923,13 +9920,13 @@
         <v>237</v>
       </c>
       <c r="D70" t="s">
+        <v>513</v>
+      </c>
+      <c r="E70" t="s">
         <v>514</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>515</v>
-      </c>
-      <c r="F70" t="s">
-        <v>516</v>
       </c>
       <c r="G70" t="s">
         <v>83</v>
@@ -9941,7 +9938,7 @@
         <v>31</v>
       </c>
       <c r="J70" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K70" t="s">
         <v>50</v>
@@ -9962,10 +9959,10 @@
         <v>31</v>
       </c>
       <c r="Q70" t="s">
+        <v>517</v>
+      </c>
+      <c r="R70" t="s">
         <v>518</v>
-      </c>
-      <c r="R70" t="s">
-        <v>519</v>
       </c>
       <c r="S70" t="s">
         <v>31</v>
@@ -9983,15 +9980,15 @@
         <v>31</v>
       </c>
       <c r="X70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y70" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B71" t="s">
         <v>141</v>
@@ -10000,16 +9997,16 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
+        <v>521</v>
+      </c>
+      <c r="E71" t="s">
         <v>522</v>
       </c>
-      <c r="E71" t="s">
-        <v>523</v>
-      </c>
       <c r="F71" t="s">
+        <v>494</v>
+      </c>
+      <c r="G71" t="s">
         <v>495</v>
-      </c>
-      <c r="G71" t="s">
-        <v>496</v>
       </c>
       <c r="H71" t="s">
         <v>31</v>
@@ -10042,10 +10039,10 @@
         <v>31</v>
       </c>
       <c r="R71" t="s">
+        <v>523</v>
+      </c>
+      <c r="S71" t="s">
         <v>524</v>
-      </c>
-      <c r="S71" t="s">
-        <v>525</v>
       </c>
       <c r="T71" t="s">
         <v>148</v>
@@ -10063,27 +10060,27 @@
         <v>149</v>
       </c>
       <c r="Y71" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B72" t="s">
         <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D72" t="s">
         <v>127</v>
       </c>
       <c r="E72" t="s">
+        <v>527</v>
+      </c>
+      <c r="F72" t="s">
         <v>528</v>
-      </c>
-      <c r="F72" t="s">
-        <v>529</v>
       </c>
       <c r="G72" t="s">
         <v>130</v>
@@ -10113,16 +10110,16 @@
         <v>31</v>
       </c>
       <c r="P72" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>31</v>
+      </c>
+      <c r="R72" t="s">
         <v>530</v>
       </c>
-      <c r="Q72" t="s">
-        <v>31</v>
-      </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>531</v>
-      </c>
-      <c r="S72" t="s">
-        <v>532</v>
       </c>
       <c r="T72" t="s">
         <v>148</v>
@@ -10145,22 +10142,22 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B73" t="s">
         <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D73" t="s">
+        <v>533</v>
+      </c>
+      <c r="E73" t="s">
         <v>534</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>535</v>
-      </c>
-      <c r="F73" t="s">
-        <v>536</v>
       </c>
       <c r="G73" t="s">
         <v>130</v>
@@ -10190,16 +10187,16 @@
         <v>31</v>
       </c>
       <c r="P73" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q73" t="s">
         <v>537</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>538</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>539</v>
-      </c>
-      <c r="S73" t="s">
-        <v>540</v>
       </c>
       <c r="T73" t="s">
         <v>148</v>
@@ -10222,22 +10219,22 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B74" t="s">
         <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D74" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E74" t="s">
+        <v>534</v>
+      </c>
+      <c r="F74" t="s">
         <v>535</v>
-      </c>
-      <c r="F74" t="s">
-        <v>536</v>
       </c>
       <c r="G74" t="s">
         <v>130</v>
@@ -10267,16 +10264,16 @@
         <v>31</v>
       </c>
       <c r="P74" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>532</v>
+      </c>
+      <c r="R74" t="s">
         <v>542</v>
       </c>
-      <c r="Q74" t="s">
-        <v>533</v>
-      </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>543</v>
-      </c>
-      <c r="S74" t="s">
-        <v>544</v>
       </c>
       <c r="T74" t="s">
         <v>148</v>
@@ -10299,22 +10296,22 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B75" t="s">
         <v>141</v>
       </c>
       <c r="C75" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D75" t="s">
+        <v>544</v>
+      </c>
+      <c r="E75" t="s">
         <v>545</v>
       </c>
-      <c r="E75" t="s">
-        <v>546</v>
-      </c>
       <c r="F75" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G75" t="s">
         <v>130</v>
@@ -10344,16 +10341,16 @@
         <v>31</v>
       </c>
       <c r="P75" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>536</v>
+      </c>
+      <c r="R75" t="s">
         <v>547</v>
       </c>
-      <c r="Q75" t="s">
-        <v>537</v>
-      </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>548</v>
-      </c>
-      <c r="S75" t="s">
-        <v>549</v>
       </c>
       <c r="T75" t="s">
         <v>148</v>
@@ -10376,13 +10373,13 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B76" t="s">
         <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D76" t="s">
         <v>127</v>
@@ -10421,16 +10418,16 @@
         <v>31</v>
       </c>
       <c r="P76" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>541</v>
+      </c>
+      <c r="R76" t="s">
         <v>550</v>
       </c>
-      <c r="Q76" t="s">
-        <v>542</v>
-      </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>551</v>
-      </c>
-      <c r="S76" t="s">
-        <v>552</v>
       </c>
       <c r="T76" t="s">
         <v>148</v>
@@ -10453,7 +10450,7 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B77" t="s">
         <v>141</v>
@@ -10468,7 +10465,7 @@
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G77" t="s">
         <v>130</v>
@@ -10501,13 +10498,13 @@
         <v>31</v>
       </c>
       <c r="Q77" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="R77" t="s">
+        <v>553</v>
+      </c>
+      <c r="S77" t="s">
         <v>554</v>
-      </c>
-      <c r="S77" t="s">
-        <v>555</v>
       </c>
       <c r="T77" t="s">
         <v>148</v>
@@ -10525,12 +10522,12 @@
         <v>149</v>
       </c>
       <c r="Y77" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -10539,13 +10536,13 @@
         <v>237</v>
       </c>
       <c r="D78" t="s">
+        <v>556</v>
+      </c>
+      <c r="E78" t="s">
         <v>557</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>558</v>
-      </c>
-      <c r="F78" t="s">
-        <v>559</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -10578,10 +10575,10 @@
         <v>31</v>
       </c>
       <c r="Q78" t="s">
+        <v>559</v>
+      </c>
+      <c r="R78" t="s">
         <v>560</v>
-      </c>
-      <c r="R78" t="s">
-        <v>561</v>
       </c>
       <c r="S78" t="s">
         <v>31</v>
@@ -10599,30 +10596,30 @@
         <v>31</v>
       </c>
       <c r="X78" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y78" t="s">
         <v>562</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B79" t="s">
         <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D79" t="s">
+        <v>563</v>
+      </c>
+      <c r="E79" t="s">
         <v>564</v>
       </c>
-      <c r="E79" t="s">
-        <v>565</v>
-      </c>
       <c r="F79" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G79" t="s">
         <v>130</v>
@@ -10652,16 +10649,16 @@
         <v>31</v>
       </c>
       <c r="P79" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q79" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R79" t="s">
+        <v>565</v>
+      </c>
+      <c r="S79" t="s">
         <v>566</v>
-      </c>
-      <c r="S79" t="s">
-        <v>567</v>
       </c>
       <c r="T79" t="s">
         <v>148</v>
@@ -10684,22 +10681,22 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B80" t="s">
         <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D80" t="s">
         <v>127</v>
       </c>
       <c r="E80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F80" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G80" t="s">
         <v>130</v>
@@ -10729,16 +10726,16 @@
         <v>31</v>
       </c>
       <c r="P80" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q80" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R80" t="s">
+        <v>568</v>
+      </c>
+      <c r="S80" t="s">
         <v>569</v>
-      </c>
-      <c r="S80" t="s">
-        <v>570</v>
       </c>
       <c r="T80" t="s">
         <v>148</v>
@@ -10761,7 +10758,7 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -10770,10 +10767,10 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
+        <v>571</v>
+      </c>
+      <c r="E81" t="s">
         <v>572</v>
-      </c>
-      <c r="E81" t="s">
-        <v>573</v>
       </c>
       <c r="F81" t="s">
         <v>30</v>
@@ -10809,10 +10806,10 @@
         <v>31</v>
       </c>
       <c r="Q81" t="s">
+        <v>573</v>
+      </c>
+      <c r="R81" t="s">
         <v>574</v>
-      </c>
-      <c r="R81" t="s">
-        <v>575</v>
       </c>
       <c r="S81" t="s">
         <v>31</v>
@@ -10838,7 +10835,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B82" t="s">
         <v>141</v>
@@ -10862,7 +10859,7 @@
         <v>31</v>
       </c>
       <c r="I82" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J82" t="s">
         <v>42</v>
@@ -10889,13 +10886,13 @@
         <v>31</v>
       </c>
       <c r="R82" t="s">
+        <v>577</v>
+      </c>
+      <c r="S82" t="s">
         <v>578</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>579</v>
-      </c>
-      <c r="T82" t="s">
-        <v>580</v>
       </c>
       <c r="U82" t="s">
         <v>44</v>
@@ -10910,12 +10907,12 @@
         <v>149</v>
       </c>
       <c r="Y82" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -10924,22 +10921,22 @@
         <v>87</v>
       </c>
       <c r="D83" t="s">
+        <v>581</v>
+      </c>
+      <c r="E83" t="s">
         <v>582</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>583</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>584</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" t="s">
         <v>585</v>
-      </c>
-      <c r="H83" t="s">
-        <v>31</v>
-      </c>
-      <c r="I83" t="s">
-        <v>586</v>
       </c>
       <c r="J83" t="s">
         <v>42</v>
@@ -10966,7 +10963,7 @@
         <v>31</v>
       </c>
       <c r="R83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S83" t="s">
         <v>31</v>
@@ -10984,7 +10981,7 @@
         <v>31</v>
       </c>
       <c r="X83" t="s">
-        <v>316</v>
+        <v>587</v>
       </c>
       <c r="Y83" t="s">
         <v>588</v>
@@ -11318,7 +11315,7 @@
         <v>612</v>
       </c>
       <c r="G88" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H88" t="s">
         <v>31</v>
@@ -11372,7 +11369,7 @@
         <v>149</v>
       </c>
       <c r="Y88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -11659,7 +11656,7 @@
         <v>31</v>
       </c>
       <c r="R92" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S92" t="s">
         <v>31</v>
@@ -11911,7 +11908,7 @@
         <v>149</v>
       </c>
       <c r="Y95" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -12142,7 +12139,7 @@
         <v>149</v>
       </c>
       <c r="Y98" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -12296,7 +12293,7 @@
         <v>149</v>
       </c>
       <c r="Y100" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -12447,7 +12444,7 @@
         <v>31</v>
       </c>
       <c r="X102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y102" t="s">
         <v>696</v>
@@ -12627,7 +12624,7 @@
         <v>710</v>
       </c>
       <c r="G105" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H105" t="s">
         <v>31</v>
@@ -12814,7 +12811,7 @@
         <v>31</v>
       </c>
       <c r="R107" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S107" t="s">
         <v>31</v>
@@ -12926,7 +12923,7 @@
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E109" t="s">
         <v>731</v>
@@ -13317,7 +13314,7 @@
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G114" t="s">
         <v>72</v>
@@ -13374,7 +13371,7 @@
         <v>149</v>
       </c>
       <c r="Y114" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:25">
@@ -13394,7 +13391,7 @@
         <v>762</v>
       </c>
       <c r="F115" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G115" t="s">
         <v>40</v>
@@ -13451,7 +13448,7 @@
         <v>149</v>
       </c>
       <c r="Y115" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:25">
@@ -13682,7 +13679,7 @@
         <v>149</v>
       </c>
       <c r="Y118" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -13975,7 +13972,7 @@
         <v>814</v>
       </c>
       <c r="T122" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U122" t="s">
         <v>44</v>
@@ -14052,7 +14049,7 @@
         <v>820</v>
       </c>
       <c r="T123" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U123" t="s">
         <v>44</v>
@@ -14283,7 +14280,7 @@
         <v>846</v>
       </c>
       <c r="T126" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U126" t="s">
         <v>44</v>
@@ -14395,7 +14392,7 @@
         <v>854</v>
       </c>
       <c r="F128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
@@ -14549,7 +14546,7 @@
         <v>854</v>
       </c>
       <c r="F130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G130" t="s">
         <v>40</v>
@@ -14760,7 +14757,7 @@
         <v>149</v>
       </c>
       <c r="Y132" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:25">
@@ -14837,7 +14834,7 @@
         <v>149</v>
       </c>
       <c r="Y133" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:25">
@@ -15142,7 +15139,7 @@
         <v>31</v>
       </c>
       <c r="X137" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="Y137" t="s">
         <v>907</v>
@@ -15230,7 +15227,7 @@
         <v>914</v>
       </c>
       <c r="B139" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C139" t="s">
         <v>915</v>
@@ -15242,7 +15239,7 @@
         <v>917</v>
       </c>
       <c r="F139" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G139" t="s">
         <v>72</v>
@@ -15319,7 +15316,7 @@
         <v>922</v>
       </c>
       <c r="F140" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G140" t="s">
         <v>923</v>
@@ -15361,7 +15358,7 @@
         <v>926</v>
       </c>
       <c r="T140" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U140" t="s">
         <v>44</v>
@@ -15607,7 +15604,7 @@
         <v>149</v>
       </c>
       <c r="Y143" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:25">
@@ -15681,7 +15678,7 @@
         <v>31</v>
       </c>
       <c r="X144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y144" t="s">
         <v>947</v>
@@ -15692,7 +15689,7 @@
         <v>948</v>
       </c>
       <c r="B145" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C145" t="s">
         <v>915</v>
@@ -15704,7 +15701,7 @@
         <v>950</v>
       </c>
       <c r="F145" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G145" t="s">
         <v>72</v>
@@ -15843,7 +15840,7 @@
     </row>
     <row r="147" spans="1:25">
       <c r="A147" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B147" t="s">
         <v>141</v>
@@ -15888,7 +15885,7 @@
         <v>31</v>
       </c>
       <c r="P147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q147" t="s">
         <v>31</v>
@@ -16006,16 +16003,16 @@
         <v>27</v>
       </c>
       <c r="D149" t="s">
+        <v>507</v>
+      </c>
+      <c r="E149" t="s">
         <v>508</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>509</v>
       </c>
-      <c r="F149" t="s">
-        <v>510</v>
-      </c>
       <c r="G149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H149" t="s">
         <v>31</v>
@@ -16477,7 +16474,7 @@
         <v>1006</v>
       </c>
       <c r="G155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H155" t="s">
         <v>31</v>
@@ -16563,7 +16560,7 @@
         <v>31</v>
       </c>
       <c r="J156" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K156" t="s">
         <v>50</v>
@@ -17363,7 +17360,7 @@
         <v>1074</v>
       </c>
       <c r="T166" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U166" t="s">
         <v>44</v>
@@ -17475,7 +17472,7 @@
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G168" t="s">
         <v>83</v>
@@ -17487,7 +17484,7 @@
         <v>31</v>
       </c>
       <c r="J168" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K168" t="s">
         <v>50</v>
@@ -17540,7 +17537,7 @@
         <v>1083</v>
       </c>
       <c r="B169" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C169" t="s">
         <v>915</v>
@@ -17617,7 +17614,7 @@
         <v>1087</v>
       </c>
       <c r="B170" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C170" t="s">
         <v>915</v>
@@ -18091,7 +18088,7 @@
         <v>1122</v>
       </c>
       <c r="F176" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G176" t="s">
         <v>130</v>
@@ -18245,7 +18242,7 @@
         <v>1133</v>
       </c>
       <c r="F178" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G178" t="s">
         <v>83</v>
@@ -18299,10 +18296,10 @@
         <v>31</v>
       </c>
       <c r="X178" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y178" t="s">
         <v>1135</v>
-      </c>
-      <c r="Y178" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="179" spans="1:25">
@@ -18319,7 +18316,7 @@
         <v>740</v>
       </c>
       <c r="E179" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F179" t="s">
         <v>742</v>
@@ -18355,13 +18352,13 @@
         <v>867</v>
       </c>
       <c r="Q179" t="s">
+        <v>1137</v>
+      </c>
+      <c r="R179" t="s">
         <v>1138</v>
       </c>
-      <c r="R179" t="s">
+      <c r="S179" t="s">
         <v>1139</v>
-      </c>
-      <c r="S179" t="s">
-        <v>1140</v>
       </c>
       <c r="T179" t="s">
         <v>148</v>
@@ -18384,7 +18381,7 @@
     </row>
     <row r="180" spans="1:25">
       <c r="A180" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B180" t="s">
         <v>26</v>
@@ -18393,13 +18390,13 @@
         <v>87</v>
       </c>
       <c r="D180" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E180" t="s">
         <v>1142</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>1143</v>
-      </c>
-      <c r="F180" t="s">
-        <v>1144</v>
       </c>
       <c r="G180" t="s">
         <v>156</v>
@@ -18408,10 +18405,10 @@
         <v>31</v>
       </c>
       <c r="I180" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J180" t="s">
         <v>1145</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1146</v>
       </c>
       <c r="K180" t="s">
         <v>50</v>
@@ -18435,7 +18432,7 @@
         <v>31</v>
       </c>
       <c r="R180" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="S180" t="s">
         <v>31</v>
@@ -18461,7 +18458,7 @@
     </row>
     <row r="181" spans="1:25">
       <c r="A181" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B181" t="s">
         <v>26</v>
@@ -18470,10 +18467,10 @@
         <v>27</v>
       </c>
       <c r="D181" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E181" t="s">
         <v>1149</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1150</v>
       </c>
       <c r="F181" t="s">
         <v>1031</v>
@@ -18538,7 +18535,7 @@
     </row>
     <row r="182" spans="1:25">
       <c r="A182" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B182" t="s">
         <v>141</v>
@@ -18547,16 +18544,16 @@
         <v>27</v>
       </c>
       <c r="D182" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E182" t="s">
         <v>1152</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1153</v>
       </c>
       <c r="F182" t="s">
         <v>71</v>
       </c>
       <c r="G182" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H182" t="s">
         <v>31</v>
@@ -18592,7 +18589,7 @@
         <v>31</v>
       </c>
       <c r="S182" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="T182" t="s">
         <v>31</v>
@@ -18615,7 +18612,7 @@
     </row>
     <row r="183" spans="1:25">
       <c r="A183" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B183" t="s">
         <v>26</v>
@@ -18624,13 +18621,13 @@
         <v>237</v>
       </c>
       <c r="D183" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E183" t="s">
         <v>1157</v>
       </c>
-      <c r="E183" t="s">
-        <v>1158</v>
-      </c>
       <c r="F183" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G183" t="s">
         <v>83</v>
@@ -18666,7 +18663,7 @@
         <v>31</v>
       </c>
       <c r="R183" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="S183" t="s">
         <v>31</v>
@@ -18684,15 +18681,15 @@
         <v>31</v>
       </c>
       <c r="X183" t="s">
-        <v>1135</v>
+        <v>78</v>
       </c>
       <c r="Y183" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="184" spans="1:25">
       <c r="A184" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B184" t="s">
         <v>26</v>
@@ -18701,13 +18698,13 @@
         <v>27</v>
       </c>
       <c r="D184" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E184" t="s">
         <v>1162</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>1163</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1164</v>
       </c>
       <c r="G184" t="s">
         <v>123</v>
@@ -18716,7 +18713,7 @@
         <v>31</v>
       </c>
       <c r="I184" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J184" t="s">
         <v>31</v>
@@ -18743,7 +18740,7 @@
         <v>31</v>
       </c>
       <c r="R184" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="S184" t="s">
         <v>31</v>
@@ -18769,7 +18766,7 @@
     </row>
     <row r="185" spans="1:25">
       <c r="A185" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B185" t="s">
         <v>26</v>
@@ -18778,16 +18775,16 @@
         <v>27</v>
       </c>
       <c r="D185" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E185" t="s">
         <v>1168</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>1169</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>1170</v>
-      </c>
-      <c r="G185" t="s">
-        <v>1171</v>
       </c>
       <c r="H185" t="s">
         <v>31</v>
@@ -18820,7 +18817,7 @@
         <v>31</v>
       </c>
       <c r="R185" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="S185" t="s">
         <v>31</v>
@@ -18846,7 +18843,7 @@
     </row>
     <row r="186" spans="1:25">
       <c r="A186" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B186" t="s">
         <v>141</v>
@@ -18855,13 +18852,13 @@
         <v>27</v>
       </c>
       <c r="D186" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E186" t="s">
         <v>1174</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>1175</v>
-      </c>
-      <c r="F186" t="s">
-        <v>1176</v>
       </c>
       <c r="G186" t="s">
         <v>40</v>
@@ -18894,13 +18891,13 @@
         <v>31</v>
       </c>
       <c r="Q186" t="s">
+        <v>1176</v>
+      </c>
+      <c r="R186" t="s">
         <v>1177</v>
       </c>
-      <c r="R186" t="s">
+      <c r="S186" t="s">
         <v>1178</v>
-      </c>
-      <c r="S186" t="s">
-        <v>1179</v>
       </c>
       <c r="T186" t="s">
         <v>31</v>
@@ -18918,12 +18915,12 @@
         <v>60</v>
       </c>
       <c r="Y186" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="187" spans="1:25">
       <c r="A187" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B187" t="s">
         <v>141</v>
@@ -18935,10 +18932,10 @@
         <v>659</v>
       </c>
       <c r="E187" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F187" t="s">
         <v>1181</v>
-      </c>
-      <c r="F187" t="s">
-        <v>1182</v>
       </c>
       <c r="G187" t="s">
         <v>40</v>
@@ -18968,16 +18965,16 @@
         <v>31</v>
       </c>
       <c r="P187" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q187" t="s">
         <v>31</v>
       </c>
       <c r="R187" t="s">
+        <v>1182</v>
+      </c>
+      <c r="S187" t="s">
         <v>1183</v>
-      </c>
-      <c r="S187" t="s">
-        <v>1184</v>
       </c>
       <c r="T187" t="s">
         <v>31</v>
@@ -19000,7 +18997,7 @@
     </row>
     <row r="188" spans="1:25">
       <c r="A188" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B188" t="s">
         <v>141</v>
@@ -19009,13 +19006,13 @@
         <v>27</v>
       </c>
       <c r="D188" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E188" t="s">
         <v>1186</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>1187</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1188</v>
       </c>
       <c r="G188" t="s">
         <v>72</v>
@@ -19051,10 +19048,10 @@
         <v>31</v>
       </c>
       <c r="R188" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S188" t="s">
         <v>1189</v>
-      </c>
-      <c r="S188" t="s">
-        <v>1190</v>
       </c>
       <c r="T188" t="s">
         <v>31</v>
@@ -19077,7 +19074,7 @@
     </row>
     <row r="189" spans="1:25">
       <c r="A189" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B189" t="s">
         <v>141</v>
@@ -19086,13 +19083,13 @@
         <v>27</v>
       </c>
       <c r="D189" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F189" t="s">
         <v>1192</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1193</v>
       </c>
       <c r="G189" t="s">
         <v>40</v>
@@ -19110,28 +19107,28 @@
         <v>50</v>
       </c>
       <c r="L189" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M189" t="s">
+        <v>31</v>
+      </c>
+      <c r="N189" t="s">
+        <v>31</v>
+      </c>
+      <c r="O189" t="s">
+        <v>31</v>
+      </c>
+      <c r="P189" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>31</v>
+      </c>
+      <c r="R189" t="s">
+        <v>31</v>
+      </c>
+      <c r="S189" t="s">
         <v>1194</v>
-      </c>
-      <c r="M189" t="s">
-        <v>31</v>
-      </c>
-      <c r="N189" t="s">
-        <v>31</v>
-      </c>
-      <c r="O189" t="s">
-        <v>31</v>
-      </c>
-      <c r="P189" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q189" t="s">
-        <v>31</v>
-      </c>
-      <c r="R189" t="s">
-        <v>31</v>
-      </c>
-      <c r="S189" t="s">
-        <v>1195</v>
       </c>
       <c r="T189" t="s">
         <v>31</v>
@@ -19154,7 +19151,7 @@
     </row>
     <row r="190" spans="1:25">
       <c r="A190" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B190" t="s">
         <v>26</v>
@@ -19163,13 +19160,13 @@
         <v>27</v>
       </c>
       <c r="D190" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E190" t="s">
         <v>1197</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>1198</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1199</v>
       </c>
       <c r="G190" t="s">
         <v>72</v>
@@ -19178,7 +19175,7 @@
         <v>31</v>
       </c>
       <c r="I190" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="J190" t="s">
         <v>31</v>
@@ -19205,7 +19202,7 @@
         <v>31</v>
       </c>
       <c r="R190" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="S190" t="s">
         <v>31</v>
@@ -19231,19 +19228,19 @@
     </row>
     <row r="191" spans="1:25">
       <c r="A191" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B191" t="s">
         <v>26</v>
       </c>
       <c r="C191" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D191" t="s">
         <v>1203</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>1204</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1205</v>
       </c>
       <c r="F191" t="s">
         <v>30</v>
@@ -19279,10 +19276,10 @@
         <v>31</v>
       </c>
       <c r="Q191" t="s">
+        <v>1205</v>
+      </c>
+      <c r="R191" t="s">
         <v>1206</v>
-      </c>
-      <c r="R191" t="s">
-        <v>1207</v>
       </c>
       <c r="S191" t="s">
         <v>31</v>
@@ -19317,13 +19314,13 @@
         <v>160</v>
       </c>
       <c r="D192" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E192" t="s">
         <v>1208</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>1209</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1210</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -19332,7 +19329,7 @@
         <v>31</v>
       </c>
       <c r="I192" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J192" t="s">
         <v>42</v>
@@ -19359,10 +19356,10 @@
         <v>31</v>
       </c>
       <c r="R192" t="s">
+        <v>1211</v>
+      </c>
+      <c r="S192" t="s">
         <v>1212</v>
-      </c>
-      <c r="S192" t="s">
-        <v>1213</v>
       </c>
       <c r="T192" t="s">
         <v>31</v>
@@ -19385,7 +19382,7 @@
     </row>
     <row r="193" spans="1:25">
       <c r="A193" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B193" t="s">
         <v>26</v>
@@ -19394,13 +19391,13 @@
         <v>87</v>
       </c>
       <c r="D193" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E193" t="s">
         <v>1215</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>1216</v>
-      </c>
-      <c r="F193" t="s">
-        <v>1217</v>
       </c>
       <c r="G193" t="s">
         <v>156</v>
@@ -19409,7 +19406,7 @@
         <v>31</v>
       </c>
       <c r="I193" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J193" t="s">
         <v>42</v>
@@ -19433,7 +19430,7 @@
         <v>31</v>
       </c>
       <c r="Q193" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="R193" t="s">
         <v>827</v>
@@ -19454,15 +19451,15 @@
         <v>31</v>
       </c>
       <c r="X193" t="s">
-        <v>562</v>
+        <v>289</v>
       </c>
       <c r="Y193" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="194" spans="1:25">
       <c r="A194" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B194" t="s">
         <v>26</v>
@@ -19471,10 +19468,10 @@
         <v>237</v>
       </c>
       <c r="D194" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E194" t="s">
         <v>1222</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1223</v>
       </c>
       <c r="F194" t="s">
         <v>640</v>
@@ -19486,7 +19483,7 @@
         <v>31</v>
       </c>
       <c r="I194" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J194" t="s">
         <v>42</v>
@@ -19510,10 +19507,10 @@
         <v>31</v>
       </c>
       <c r="Q194" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R194" t="s">
         <v>1225</v>
-      </c>
-      <c r="R194" t="s">
-        <v>1226</v>
       </c>
       <c r="S194" t="s">
         <v>31</v>
@@ -19539,7 +19536,7 @@
     </row>
     <row r="195" spans="1:25">
       <c r="A195" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B195" t="s">
         <v>141</v>
@@ -19548,13 +19545,13 @@
         <v>27</v>
       </c>
       <c r="D195" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E195" t="s">
         <v>1228</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>1229</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1230</v>
       </c>
       <c r="G195" t="s">
         <v>40</v>
@@ -19590,10 +19587,10 @@
         <v>31</v>
       </c>
       <c r="R195" t="s">
+        <v>1230</v>
+      </c>
+      <c r="S195" t="s">
         <v>1231</v>
-      </c>
-      <c r="S195" t="s">
-        <v>1232</v>
       </c>
       <c r="T195" t="s">
         <v>31</v>
@@ -19616,7 +19613,7 @@
     </row>
     <row r="196" spans="1:25">
       <c r="A196" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B196" t="s">
         <v>26</v>
@@ -19625,13 +19622,13 @@
         <v>237</v>
       </c>
       <c r="D196" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E196" t="s">
         <v>1234</v>
       </c>
-      <c r="E196" t="s">
-        <v>1235</v>
-      </c>
       <c r="F196" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G196" t="s">
         <v>40</v>
@@ -19640,7 +19637,7 @@
         <v>31</v>
       </c>
       <c r="I196" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J196" t="s">
         <v>42</v>
@@ -19667,7 +19664,7 @@
         <v>31</v>
       </c>
       <c r="R196" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="S196" t="s">
         <v>31</v>
@@ -19688,12 +19685,12 @@
         <v>60</v>
       </c>
       <c r="Y196" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="197" spans="1:25">
       <c r="A197" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B197" t="s">
         <v>26</v>
@@ -19702,7 +19699,7 @@
         <v>27</v>
       </c>
       <c r="D197" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E197" t="s">
         <v>38</v>
@@ -19741,10 +19738,10 @@
         <v>31</v>
       </c>
       <c r="Q197" t="s">
+        <v>1240</v>
+      </c>
+      <c r="R197" t="s">
         <v>1241</v>
-      </c>
-      <c r="R197" t="s">
-        <v>1242</v>
       </c>
       <c r="S197" t="s">
         <v>31</v>
@@ -19770,7 +19767,7 @@
     </row>
     <row r="198" spans="1:25">
       <c r="A198" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B198" t="s">
         <v>26</v>
@@ -19779,13 +19776,13 @@
         <v>27</v>
       </c>
       <c r="D198" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E198" t="s">
         <v>1244</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>1245</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1246</v>
       </c>
       <c r="G198" t="s">
         <v>40</v>
@@ -19794,7 +19791,7 @@
         <v>31</v>
       </c>
       <c r="I198" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="J198" t="s">
         <v>42</v>
@@ -19821,7 +19818,7 @@
         <v>31</v>
       </c>
       <c r="R198" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="S198" t="s">
         <v>31</v>
@@ -19847,7 +19844,7 @@
     </row>
     <row r="199" spans="1:25">
       <c r="A199" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B199" t="s">
         <v>141</v>
@@ -19856,13 +19853,13 @@
         <v>27</v>
       </c>
       <c r="D199" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E199" t="s">
         <v>1250</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
         <v>1251</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1252</v>
       </c>
       <c r="G199" t="s">
         <v>40</v>
@@ -19871,7 +19868,7 @@
         <v>31</v>
       </c>
       <c r="I199" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J199" t="s">
         <v>42</v>
@@ -19895,13 +19892,13 @@
         <v>31</v>
       </c>
       <c r="Q199" t="s">
+        <v>1253</v>
+      </c>
+      <c r="R199" t="s">
         <v>1254</v>
       </c>
-      <c r="R199" t="s">
+      <c r="S199" t="s">
         <v>1255</v>
-      </c>
-      <c r="S199" t="s">
-        <v>1256</v>
       </c>
       <c r="T199" t="s">
         <v>148</v>
@@ -19924,7 +19921,7 @@
     </row>
     <row r="200" spans="1:25">
       <c r="A200" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B200" t="s">
         <v>26</v>
@@ -19933,13 +19930,13 @@
         <v>27</v>
       </c>
       <c r="D200" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E200" t="s">
         <v>1258</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>1259</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1260</v>
       </c>
       <c r="G200" t="s">
         <v>123</v>
@@ -19975,7 +19972,7 @@
         <v>31</v>
       </c>
       <c r="R200" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="S200" t="s">
         <v>31</v>
@@ -20001,7 +19998,7 @@
     </row>
     <row r="201" spans="1:25">
       <c r="A201" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B201" t="s">
         <v>26</v>
@@ -20010,13 +20007,13 @@
         <v>27</v>
       </c>
       <c r="D201" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E201" t="s">
         <v>1263</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>1264</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1265</v>
       </c>
       <c r="G201" t="s">
         <v>635</v>
@@ -20025,7 +20022,7 @@
         <v>31</v>
       </c>
       <c r="I201" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J201" t="s">
         <v>31</v>
@@ -20052,7 +20049,7 @@
         <v>31</v>
       </c>
       <c r="R201" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="S201" t="s">
         <v>31</v>
@@ -20078,7 +20075,7 @@
     </row>
     <row r="202" spans="1:25">
       <c r="A202" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B202" t="s">
         <v>26</v>
@@ -20087,10 +20084,10 @@
         <v>237</v>
       </c>
       <c r="D202" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E202" t="s">
         <v>1269</v>
-      </c>
-      <c r="E202" t="s">
-        <v>1270</v>
       </c>
       <c r="F202" t="s">
         <v>30</v>
@@ -20102,7 +20099,7 @@
         <v>31</v>
       </c>
       <c r="I202" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J202" t="s">
         <v>42</v>
@@ -20129,7 +20126,7 @@
         <v>31</v>
       </c>
       <c r="R202" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="S202" t="s">
         <v>31</v>
@@ -20147,15 +20144,15 @@
         <v>31</v>
       </c>
       <c r="X202" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y202" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="203" spans="1:25">
       <c r="A203" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B203" t="s">
         <v>26</v>
@@ -20164,13 +20161,13 @@
         <v>27</v>
       </c>
       <c r="D203" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E203" t="s">
         <v>1275</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>1276</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1277</v>
       </c>
       <c r="G203" t="s">
         <v>72</v>
@@ -20179,7 +20176,7 @@
         <v>31</v>
       </c>
       <c r="I203" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="J203" t="s">
         <v>31</v>
@@ -20206,7 +20203,7 @@
         <v>31</v>
       </c>
       <c r="R203" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="S203" t="s">
         <v>31</v>
@@ -20232,7 +20229,7 @@
     </row>
     <row r="204" spans="1:25">
       <c r="A204" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B204" t="s">
         <v>141</v>
@@ -20241,13 +20238,13 @@
         <v>27</v>
       </c>
       <c r="D204" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E204" t="s">
         <v>1281</v>
       </c>
-      <c r="E204" t="s">
+      <c r="F204" t="s">
         <v>1282</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1283</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -20286,7 +20283,7 @@
         <v>31</v>
       </c>
       <c r="S204" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="T204" t="s">
         <v>31</v>
@@ -20309,7 +20306,7 @@
     </row>
     <row r="205" spans="1:25">
       <c r="A205" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B205" t="s">
         <v>26</v>
@@ -20318,13 +20315,13 @@
         <v>237</v>
       </c>
       <c r="D205" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E205" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F205" t="s">
         <v>1286</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1287</v>
       </c>
       <c r="G205" t="s">
         <v>83</v>
@@ -20357,10 +20354,10 @@
         <v>31</v>
       </c>
       <c r="Q205" t="s">
+        <v>1287</v>
+      </c>
+      <c r="R205" t="s">
         <v>1288</v>
-      </c>
-      <c r="R205" t="s">
-        <v>1289</v>
       </c>
       <c r="S205" t="s">
         <v>31</v>
@@ -20381,12 +20378,12 @@
         <v>60</v>
       </c>
       <c r="Y205" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="206" spans="1:25">
       <c r="A206" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B206" t="s">
         <v>26</v>
@@ -20395,22 +20392,22 @@
         <v>27</v>
       </c>
       <c r="D206" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E206" t="s">
         <v>1292</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>1293</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>1294</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="s">
+        <v>31</v>
+      </c>
+      <c r="I206" t="s">
         <v>1295</v>
-      </c>
-      <c r="H206" t="s">
-        <v>31</v>
-      </c>
-      <c r="I206" t="s">
-        <v>1296</v>
       </c>
       <c r="J206" t="s">
         <v>42</v>
@@ -20437,7 +20434,7 @@
         <v>31</v>
       </c>
       <c r="R206" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="S206" t="s">
         <v>31</v>
@@ -20463,7 +20460,7 @@
     </row>
     <row r="207" spans="1:25">
       <c r="A207" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B207" t="s">
         <v>26</v>
@@ -20472,13 +20469,13 @@
         <v>27</v>
       </c>
       <c r="D207" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E207" t="s">
         <v>1299</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>1300</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1301</v>
       </c>
       <c r="G207" t="s">
         <v>40</v>
@@ -20511,10 +20508,10 @@
         <v>31</v>
       </c>
       <c r="Q207" t="s">
+        <v>1301</v>
+      </c>
+      <c r="R207" t="s">
         <v>1302</v>
-      </c>
-      <c r="R207" t="s">
-        <v>1303</v>
       </c>
       <c r="S207" t="s">
         <v>31</v>
@@ -20540,7 +20537,7 @@
     </row>
     <row r="208" spans="1:25">
       <c r="A208" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B208" t="s">
         <v>141</v>
@@ -20549,13 +20546,13 @@
         <v>27</v>
       </c>
       <c r="D208" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E208" t="s">
         <v>1305</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>1306</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1307</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -20594,7 +20591,7 @@
         <v>31</v>
       </c>
       <c r="S208" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="T208" t="s">
         <v>31</v>
@@ -20617,7 +20614,7 @@
     </row>
     <row r="209" spans="1:25">
       <c r="A209" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B209" t="s">
         <v>26</v>
@@ -20626,13 +20623,13 @@
         <v>237</v>
       </c>
       <c r="D209" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E209" t="s">
         <v>1310</v>
       </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
         <v>1311</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1312</v>
       </c>
       <c r="G209" t="s">
         <v>83</v>
@@ -20668,7 +20665,7 @@
         <v>31</v>
       </c>
       <c r="R209" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="S209" t="s">
         <v>31</v>
@@ -20686,15 +20683,15 @@
         <v>31</v>
       </c>
       <c r="X209" t="s">
-        <v>1135</v>
+        <v>587</v>
       </c>
       <c r="Y209" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="210" spans="1:25">
       <c r="A210" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B210" t="s">
         <v>26</v>
@@ -20703,22 +20700,22 @@
         <v>27</v>
       </c>
       <c r="D210" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E210" t="s">
         <v>38</v>
       </c>
       <c r="F210" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G210" t="s">
         <v>1316</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
+        <v>31</v>
+      </c>
+      <c r="I210" t="s">
         <v>1317</v>
-      </c>
-      <c r="H210" t="s">
-        <v>31</v>
-      </c>
-      <c r="I210" t="s">
-        <v>1318</v>
       </c>
       <c r="J210" t="s">
         <v>42</v>
@@ -20742,10 +20739,10 @@
         <v>31</v>
       </c>
       <c r="Q210" t="s">
+        <v>1318</v>
+      </c>
+      <c r="R210" t="s">
         <v>1319</v>
-      </c>
-      <c r="R210" t="s">
-        <v>1320</v>
       </c>
       <c r="S210" t="s">
         <v>31</v>
@@ -20771,7 +20768,7 @@
     </row>
     <row r="211" spans="1:25">
       <c r="A211" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B211" t="s">
         <v>141</v>
@@ -20780,13 +20777,13 @@
         <v>27</v>
       </c>
       <c r="D211" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E211" t="s">
         <v>1322</v>
       </c>
-      <c r="E211" t="s">
+      <c r="F211" t="s">
         <v>1323</v>
-      </c>
-      <c r="F211" t="s">
-        <v>1324</v>
       </c>
       <c r="G211" t="s">
         <v>123</v>
@@ -20795,7 +20792,7 @@
         <v>31</v>
       </c>
       <c r="I211" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="J211" t="s">
         <v>42</v>
@@ -20822,10 +20819,10 @@
         <v>31</v>
       </c>
       <c r="R211" t="s">
+        <v>1325</v>
+      </c>
+      <c r="S211" t="s">
         <v>1326</v>
-      </c>
-      <c r="S211" t="s">
-        <v>1327</v>
       </c>
       <c r="T211" t="s">
         <v>148</v>
@@ -20843,12 +20840,12 @@
         <v>149</v>
       </c>
       <c r="Y211" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="212" spans="1:25">
       <c r="A212" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B212" t="s">
         <v>26</v>
@@ -20857,13 +20854,13 @@
         <v>27</v>
       </c>
       <c r="D212" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E212" t="s">
         <v>1330</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>1331</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1332</v>
       </c>
       <c r="G212" t="s">
         <v>40</v>
@@ -20872,10 +20869,10 @@
         <v>31</v>
       </c>
       <c r="I212" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J212" t="s">
         <v>1333</v>
-      </c>
-      <c r="J212" t="s">
-        <v>1334</v>
       </c>
       <c r="K212" t="s">
         <v>50</v>
@@ -20896,10 +20893,10 @@
         <v>31</v>
       </c>
       <c r="Q212" t="s">
+        <v>1334</v>
+      </c>
+      <c r="R212" t="s">
         <v>1335</v>
-      </c>
-      <c r="R212" t="s">
-        <v>1336</v>
       </c>
       <c r="S212" t="s">
         <v>31</v>
@@ -20925,7 +20922,7 @@
     </row>
     <row r="213" spans="1:25">
       <c r="A213" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B213" t="s">
         <v>26</v>
@@ -20934,10 +20931,10 @@
         <v>27</v>
       </c>
       <c r="D213" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E213" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F213" t="s">
         <v>82</v>
@@ -20952,7 +20949,7 @@
         <v>31</v>
       </c>
       <c r="J213" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K213" t="s">
         <v>50</v>
@@ -20976,7 +20973,7 @@
         <v>31</v>
       </c>
       <c r="R213" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="S213" t="s">
         <v>31</v>
@@ -21002,7 +20999,7 @@
     </row>
     <row r="214" spans="1:25">
       <c r="A214" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B214" t="s">
         <v>141</v>
@@ -21014,7 +21011,7 @@
         <v>1111</v>
       </c>
       <c r="E214" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F214" t="s">
         <v>82</v>
@@ -21053,10 +21050,10 @@
         <v>31</v>
       </c>
       <c r="R214" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S214" t="s">
         <v>1343</v>
-      </c>
-      <c r="S214" t="s">
-        <v>1344</v>
       </c>
       <c r="T214" t="s">
         <v>148</v>
@@ -21074,12 +21071,12 @@
         <v>149</v>
       </c>
       <c r="Y214" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="215" spans="1:25">
       <c r="A215" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B215" t="s">
         <v>141</v>
@@ -21088,16 +21085,16 @@
         <v>27</v>
       </c>
       <c r="D215" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E215" t="s">
         <v>1346</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1347</v>
       </c>
       <c r="F215" t="s">
         <v>793</v>
       </c>
       <c r="G215" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H215" t="s">
         <v>31</v>
@@ -21130,10 +21127,10 @@
         <v>31</v>
       </c>
       <c r="R215" t="s">
+        <v>1347</v>
+      </c>
+      <c r="S215" t="s">
         <v>1348</v>
-      </c>
-      <c r="S215" t="s">
-        <v>1349</v>
       </c>
       <c r="T215" t="s">
         <v>836</v>
@@ -21151,12 +21148,12 @@
         <v>799</v>
       </c>
       <c r="Y215" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="216" spans="1:25">
       <c r="A216" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B216" t="s">
         <v>26</v>
@@ -21165,13 +21162,13 @@
         <v>27</v>
       </c>
       <c r="D216" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E216" t="s">
         <v>1352</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>1353</v>
-      </c>
-      <c r="F216" t="s">
-        <v>1354</v>
       </c>
       <c r="G216" t="s">
         <v>72</v>
@@ -21180,34 +21177,34 @@
         <v>31</v>
       </c>
       <c r="I216" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J216" t="s">
+        <v>31</v>
+      </c>
+      <c r="K216" t="s">
         <v>1355</v>
       </c>
-      <c r="J216" t="s">
-        <v>31</v>
-      </c>
-      <c r="K216" t="s">
+      <c r="L216" t="s">
+        <v>31</v>
+      </c>
+      <c r="M216" t="s">
+        <v>31</v>
+      </c>
+      <c r="N216" t="s">
+        <v>31</v>
+      </c>
+      <c r="O216" t="s">
+        <v>31</v>
+      </c>
+      <c r="P216" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q216" t="s">
         <v>1356</v>
       </c>
-      <c r="L216" t="s">
-        <v>31</v>
-      </c>
-      <c r="M216" t="s">
-        <v>31</v>
-      </c>
-      <c r="N216" t="s">
-        <v>31</v>
-      </c>
-      <c r="O216" t="s">
-        <v>31</v>
-      </c>
-      <c r="P216" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q216" t="s">
+      <c r="R216" t="s">
         <v>1357</v>
-      </c>
-      <c r="R216" t="s">
-        <v>1358</v>
       </c>
       <c r="S216" t="s">
         <v>31</v>
@@ -21233,7 +21230,7 @@
     </row>
     <row r="217" spans="1:25">
       <c r="A217" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B217" t="s">
         <v>26</v>
@@ -21242,7 +21239,7 @@
         <v>27</v>
       </c>
       <c r="D217" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E217" t="s">
         <v>910</v>
@@ -21257,7 +21254,7 @@
         <v>31</v>
       </c>
       <c r="I217" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="J217" t="s">
         <v>42</v>
@@ -21284,7 +21281,7 @@
         <v>31</v>
       </c>
       <c r="R217" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="S217" t="s">
         <v>31</v>
@@ -21310,7 +21307,7 @@
     </row>
     <row r="218" spans="1:25">
       <c r="A218" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B218" t="s">
         <v>26</v>
@@ -21319,13 +21316,13 @@
         <v>87</v>
       </c>
       <c r="D218" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E218" t="s">
         <v>1364</v>
       </c>
-      <c r="E218" t="s">
+      <c r="F218" t="s">
         <v>1365</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1366</v>
       </c>
       <c r="G218" t="s">
         <v>156</v>
@@ -21334,7 +21331,7 @@
         <v>31</v>
       </c>
       <c r="I218" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="J218" t="s">
         <v>42</v>
@@ -21361,7 +21358,7 @@
         <v>31</v>
       </c>
       <c r="R218" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="S218" t="s">
         <v>31</v>
@@ -21387,7 +21384,7 @@
     </row>
     <row r="219" spans="1:25">
       <c r="A219" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B219" t="s">
         <v>141</v>
@@ -21399,10 +21396,10 @@
         <v>848</v>
       </c>
       <c r="E219" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F219" t="s">
         <v>1370</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1371</v>
       </c>
       <c r="G219" t="s">
         <v>83</v>
@@ -21441,7 +21438,7 @@
         <v>31</v>
       </c>
       <c r="S219" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="T219" t="s">
         <v>148</v>
@@ -21464,7 +21461,7 @@
     </row>
     <row r="220" spans="1:25">
       <c r="A220" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B220" t="s">
         <v>26</v>
@@ -21473,13 +21470,13 @@
         <v>87</v>
       </c>
       <c r="D220" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E220" t="s">
         <v>1374</v>
       </c>
-      <c r="E220" t="s">
-        <v>1375</v>
-      </c>
       <c r="F220" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G220" t="s">
         <v>83</v>
@@ -21515,7 +21512,7 @@
         <v>31</v>
       </c>
       <c r="R220" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="S220" t="s">
         <v>31</v>
@@ -21536,12 +21533,12 @@
         <v>60</v>
       </c>
       <c r="Y220" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="221" spans="1:25">
       <c r="A221" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B221" t="s">
         <v>141</v>
@@ -21550,10 +21547,10 @@
         <v>27</v>
       </c>
       <c r="D221" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E221" t="s">
         <v>1378</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1379</v>
       </c>
       <c r="F221" t="s">
         <v>793</v>
@@ -21565,7 +21562,7 @@
         <v>31</v>
       </c>
       <c r="I221" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="J221" t="s">
         <v>42</v>
@@ -21592,13 +21589,13 @@
         <v>31</v>
       </c>
       <c r="R221" t="s">
+        <v>1380</v>
+      </c>
+      <c r="S221" t="s">
         <v>1381</v>
       </c>
-      <c r="S221" t="s">
-        <v>1382</v>
-      </c>
       <c r="T221" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U221" t="s">
         <v>44</v>
@@ -21618,7 +21615,7 @@
     </row>
     <row r="222" spans="1:25">
       <c r="A222" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B222" t="s">
         <v>141</v>
@@ -21627,22 +21624,22 @@
         <v>27</v>
       </c>
       <c r="D222" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E222" t="s">
         <v>1384</v>
       </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
         <v>1385</v>
       </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
         <v>1386</v>
       </c>
-      <c r="G222" t="s">
+      <c r="H222" t="s">
+        <v>31</v>
+      </c>
+      <c r="I222" t="s">
         <v>1387</v>
-      </c>
-      <c r="H222" t="s">
-        <v>31</v>
-      </c>
-      <c r="I222" t="s">
-        <v>1388</v>
       </c>
       <c r="J222" t="s">
         <v>42</v>
@@ -21669,13 +21666,13 @@
         <v>31</v>
       </c>
       <c r="R222" t="s">
+        <v>1388</v>
+      </c>
+      <c r="S222" t="s">
         <v>1389</v>
       </c>
-      <c r="S222" t="s">
-        <v>1390</v>
-      </c>
       <c r="T222" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U222" t="s">
         <v>44</v>
@@ -21690,12 +21687,12 @@
         <v>149</v>
       </c>
       <c r="Y222" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="223" spans="1:25">
       <c r="A223" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B223" t="s">
         <v>141</v>
@@ -21704,10 +21701,10 @@
         <v>27</v>
       </c>
       <c r="D223" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E223" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F223" t="s">
         <v>911</v>
@@ -21719,7 +21716,7 @@
         <v>31</v>
       </c>
       <c r="I223" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="J223" t="s">
         <v>42</v>
@@ -21746,10 +21743,10 @@
         <v>31</v>
       </c>
       <c r="R223" t="s">
+        <v>1393</v>
+      </c>
+      <c r="S223" t="s">
         <v>1394</v>
-      </c>
-      <c r="S223" t="s">
-        <v>1395</v>
       </c>
       <c r="T223" t="s">
         <v>31</v>
@@ -21767,12 +21764,12 @@
         <v>60</v>
       </c>
       <c r="Y223" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="224" spans="1:25">
       <c r="A224" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B224" t="s">
         <v>26</v>
@@ -21784,10 +21781,10 @@
         <v>659</v>
       </c>
       <c r="E224" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F224" t="s">
         <v>1398</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1399</v>
       </c>
       <c r="G224" t="s">
         <v>156</v>
@@ -21823,7 +21820,7 @@
         <v>31</v>
       </c>
       <c r="R224" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="S224" t="s">
         <v>31</v>
@@ -21849,7 +21846,7 @@
     </row>
     <row r="225" spans="1:25">
       <c r="A225" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B225" t="s">
         <v>141</v>
@@ -21858,13 +21855,13 @@
         <v>27</v>
       </c>
       <c r="D225" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E225" t="s">
         <v>1402</v>
       </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>1403</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1404</v>
       </c>
       <c r="G225" t="s">
         <v>40</v>
@@ -21882,28 +21879,28 @@
         <v>33</v>
       </c>
       <c r="L225" t="s">
+        <v>1404</v>
+      </c>
+      <c r="M225" t="s">
+        <v>31</v>
+      </c>
+      <c r="N225" t="s">
+        <v>31</v>
+      </c>
+      <c r="O225" t="s">
+        <v>31</v>
+      </c>
+      <c r="P225" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>31</v>
+      </c>
+      <c r="R225" t="s">
         <v>1405</v>
       </c>
-      <c r="M225" t="s">
-        <v>31</v>
-      </c>
-      <c r="N225" t="s">
-        <v>31</v>
-      </c>
-      <c r="O225" t="s">
-        <v>31</v>
-      </c>
-      <c r="P225" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q225" t="s">
-        <v>31</v>
-      </c>
-      <c r="R225" t="s">
+      <c r="S225" t="s">
         <v>1406</v>
-      </c>
-      <c r="S225" t="s">
-        <v>1407</v>
       </c>
       <c r="T225" t="s">
         <v>31</v>
@@ -21926,7 +21923,7 @@
     </row>
     <row r="226" spans="1:25">
       <c r="A226" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B226" t="s">
         <v>26</v>
@@ -21950,7 +21947,7 @@
         <v>31</v>
       </c>
       <c r="I226" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J226" t="s">
         <v>42</v>
@@ -21977,7 +21974,7 @@
         <v>31</v>
       </c>
       <c r="R226" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="S226" t="s">
         <v>31</v>
@@ -22003,7 +22000,7 @@
     </row>
     <row r="227" spans="1:25">
       <c r="A227" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B227" t="s">
         <v>26</v>
@@ -22012,10 +22009,10 @@
         <v>27</v>
       </c>
       <c r="D227" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E227" t="s">
         <v>1412</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1413</v>
       </c>
       <c r="F227" t="s">
         <v>122</v>
@@ -22027,7 +22024,7 @@
         <v>31</v>
       </c>
       <c r="I227" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="J227" t="s">
         <v>42</v>
@@ -22054,7 +22051,7 @@
         <v>31</v>
       </c>
       <c r="R227" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="S227" t="s">
         <v>31</v>
